--- a/idf_miyata/CaseWBT/WholeBuildingTest_計算条件まとめ.xlsx
+++ b/idf_miyata/CaseWBT/WholeBuildingTest_計算条件まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/CaseWBT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0BA35F-FB69-C44E-BD86-2271B03D83AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDE07AC-8AF8-F740-A699-DAD9824DB88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19480" yWindow="1600" windowWidth="44940" windowHeight="29280" activeTab="1" xr2:uid="{BCBDAEAB-0B6A-394C-971A-EDDF441D969A}"/>
+    <workbookView xWindow="60380" yWindow="500" windowWidth="44940" windowHeight="20500" xr2:uid="{BCBDAEAB-0B6A-394C-971A-EDDF441D969A}"/>
   </bookViews>
   <sheets>
     <sheet name="第一弾" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="149">
   <si>
     <t>1F:10XOffice2</t>
   </si>
@@ -767,6 +767,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1F:09XOffice1</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -777,7 +781,7 @@
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1153,23 +1157,11 @@
     <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,17 +1205,29 @@
     <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2311,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC0E411-0D91-A147-92DF-5EB22F4D3414}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2946,10 +2950,10 @@
         <v>1F:09XOFFICE1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4">
-        <v>266.8</v>
+        <v>366.8</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2959,29 +2963,29 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>720.36000000000013</v>
+        <v>990.36000000000013</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>72.036000000000016</v>
+        <v>99.036000000000016</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="4"/>
-        <v>2.0010000000000003E-2</v>
+        <v>2.7510000000000003E-2</v>
       </c>
       <c r="K10" s="4">
         <v>5</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="5"/>
-        <v>1334</v>
+        <v>1834</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="6"/>
-        <v>0.37055555555555558</v>
+        <v>0.50944444444444448</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>87</v>
@@ -2997,11 +3001,11 @@
       </c>
       <c r="R10" s="4">
         <f t="shared" si="7"/>
-        <v>64032</v>
+        <v>88032</v>
       </c>
       <c r="S10" s="13">
         <f t="shared" si="1"/>
-        <v>3.2016000000000004</v>
+        <v>4.4016000000000002</v>
       </c>
       <c r="T10" s="11"/>
     </row>
@@ -4727,8 +4731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA07A978-B23A-2441-8ABF-18AD3C8549C0}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4738,76 +4742,76 @@
     <col min="3" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="9" width="8.85546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="54" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="18" customFormat="1" ht="156" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="59" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="18" customFormat="1" ht="64" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="60" t="s">
         <v>110</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -4815,45 +4819,49 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="25" customHeight="1" thickTop="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="56">
         <v>163.5</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="56">
         <v>1</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="56">
         <v>32</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="56">
         <v>16</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="57">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="57">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I3" s="61">
-        <f>P3/3600*D3</f>
+      <c r="I3" s="57">
+        <f t="shared" ref="I3:I27" si="0">P3/3600*D3</f>
         <v>1.1105864811133201</v>
       </c>
-      <c r="J3" s="62">
-        <f>R3*-1*1000*D3</f>
+      <c r="J3" s="58">
+        <f t="shared" ref="J3:J27" si="1">R3*-1*1000*D3</f>
         <v>18981.411275218095</v>
       </c>
-      <c r="K3" s="61">
-        <f>P3/3600*D3</f>
+      <c r="K3" s="57">
+        <f t="shared" ref="K3:K27" si="2">P3/3600*D3</f>
         <v>1.1105864811133201</v>
       </c>
-      <c r="L3" s="62">
-        <f>Q3*1000*D3</f>
+      <c r="L3" s="58">
+        <f t="shared" ref="L3:L27" si="3">Q3*1000*D3</f>
         <v>8030.7507226575017</v>
+      </c>
+      <c r="M3">
+        <f>C3*D3</f>
+        <v>163.5</v>
       </c>
       <c r="N3">
         <f>J3/(C3*D3)</f>
@@ -4870,48 +4878,52 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="25" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="47">
         <v>100</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="47">
         <v>1</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="47">
         <v>32</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="47">
         <v>16</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I4" s="52">
-        <f>P4/3600*D4</f>
+      <c r="I4" s="48">
+        <f t="shared" si="0"/>
         <v>0.66269052352551361</v>
       </c>
-      <c r="J4" s="56">
-        <f>R4*-1*1000*D4</f>
+      <c r="J4" s="52">
+        <f t="shared" si="1"/>
         <v>11642.224996458746</v>
       </c>
-      <c r="K4" s="52">
-        <f>P4/3600*D4</f>
+      <c r="K4" s="48">
+        <f t="shared" si="2"/>
         <v>0.66269052352551361</v>
       </c>
-      <c r="L4" s="56">
-        <f>Q4*1000*D4</f>
+      <c r="L4" s="52">
+        <f t="shared" si="3"/>
         <v>5655.6298296155373</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M27" si="4">C4*D4</f>
+        <v>100</v>
+      </c>
       <c r="N4">
-        <f t="shared" ref="N4:N27" si="0">J4/(C4*D4)</f>
+        <f t="shared" ref="N4:N27" si="5">J4/(C4*D4)</f>
         <v>116.42224996458746</v>
       </c>
       <c r="P4">
@@ -4925,48 +4937,52 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="25" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="47">
         <v>12</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="47">
         <v>1</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="47">
         <v>32</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="47">
         <v>16</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I5" s="52">
-        <f>P5/3600*D5</f>
+      <c r="I5" s="48">
+        <f t="shared" si="0"/>
         <v>0.13389662027832999</v>
       </c>
-      <c r="J5" s="56">
-        <f>R5*-1*1000*D5</f>
+      <c r="J5" s="52">
+        <f t="shared" si="1"/>
         <v>2053.3789285663097</v>
       </c>
-      <c r="K5" s="52">
-        <f>P5/3600*D5</f>
+      <c r="K5" s="48">
+        <f t="shared" si="2"/>
         <v>0.13389662027832999</v>
       </c>
-      <c r="L5" s="56">
-        <f>Q5*1000*D5</f>
+      <c r="L5" s="52">
+        <f t="shared" si="3"/>
         <v>704.40059554205573</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>171.11491071385913</v>
       </c>
       <c r="P5">
@@ -4980,48 +4996,52 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="25" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="47">
         <v>39</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="47">
         <v>1</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="47">
         <v>32</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="47">
         <v>16</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I6" s="52">
-        <f>P6/3600*D6</f>
+      <c r="I6" s="48">
+        <f t="shared" si="0"/>
         <v>0.2532803180914513</v>
       </c>
-      <c r="J6" s="56">
-        <f>R6*-1*1000*D6</f>
+      <c r="J6" s="52">
+        <f t="shared" si="1"/>
         <v>4581.8745885872768</v>
       </c>
-      <c r="K6" s="52">
-        <f>P6/3600*D6</f>
+      <c r="K6" s="48">
+        <f t="shared" si="2"/>
         <v>0.2532803180914513</v>
       </c>
-      <c r="L6" s="56">
-        <f>Q6*1000*D6</f>
+      <c r="L6" s="52">
+        <f t="shared" si="3"/>
         <v>5166.2120913323524</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>117.48396380993017</v>
       </c>
       <c r="P6">
@@ -5035,48 +5055,52 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="25" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="47">
         <v>10.9</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="47">
         <v>1</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="47">
         <v>32</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="47">
         <v>16</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I7" s="52">
-        <f>P7/3600*D7</f>
+      <c r="I7" s="48">
+        <f t="shared" si="0"/>
         <v>8.4596380053015272E-2</v>
       </c>
-      <c r="J7" s="56">
-        <f>R7*-1*1000*D7</f>
+      <c r="J7" s="52">
+        <f t="shared" si="1"/>
         <v>1599.8456539145279</v>
       </c>
-      <c r="K7" s="52">
-        <f>P7/3600*D7</f>
+      <c r="K7" s="48">
+        <f t="shared" si="2"/>
         <v>8.4596380053015272E-2</v>
       </c>
-      <c r="L7" s="56">
-        <f>Q7*1000*D7</f>
+      <c r="L7" s="52">
+        <f t="shared" si="3"/>
         <v>831.20410924211853</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>10.9</v>
+      </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>146.77483063436034</v>
       </c>
       <c r="P7">
@@ -5090,48 +5114,52 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="25" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="47">
         <v>10.9</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="47">
         <v>1</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="47">
         <v>32</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="47">
         <v>16</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I8" s="52">
-        <f>P8/3600*D8</f>
+      <c r="I8" s="48">
+        <f t="shared" si="0"/>
         <v>8.1169234592445336E-2</v>
       </c>
-      <c r="J8" s="56">
-        <f>R8*-1*1000*D8</f>
+      <c r="J8" s="52">
+        <f t="shared" si="1"/>
         <v>1558.4881574410128</v>
       </c>
-      <c r="K8" s="52">
-        <f>P8/3600*D8</f>
+      <c r="K8" s="48">
+        <f t="shared" si="2"/>
         <v>8.1169234592445336E-2</v>
       </c>
-      <c r="L8" s="56">
-        <f>Q8*1000*D8</f>
+      <c r="L8" s="52">
+        <f t="shared" si="3"/>
         <v>765.34964675077845</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>10.9</v>
+      </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>142.9805649028452</v>
       </c>
       <c r="P8">
@@ -5145,48 +5173,52 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="25" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="47">
         <v>21.8</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="47">
         <v>32</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="47">
         <v>16</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I9" s="52">
-        <f>P9/3600*D9</f>
+      <c r="I9" s="48">
+        <f t="shared" si="0"/>
         <v>0.14700650265076209</v>
       </c>
-      <c r="J9" s="56">
-        <f>R9*-1*1000*D9</f>
+      <c r="J9" s="52">
+        <f t="shared" si="1"/>
         <v>2931.9660814178314</v>
       </c>
-      <c r="K9" s="52">
-        <f>P9/3600*D9</f>
+      <c r="K9" s="48">
+        <f t="shared" si="2"/>
         <v>0.14700650265076209</v>
       </c>
-      <c r="L9" s="56">
-        <f>Q9*1000*D9</f>
+      <c r="L9" s="52">
+        <f t="shared" si="3"/>
         <v>1599.2911326678106</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>21.8</v>
+      </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>134.49385694577208</v>
       </c>
       <c r="P9">
@@ -5200,48 +5232,52 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="25" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="47">
         <v>21.8</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="47">
         <v>1</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="47">
         <v>32</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="47">
         <v>16</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I10" s="52">
-        <f>P10/3600*D10</f>
+      <c r="I10" s="48">
+        <f t="shared" si="0"/>
         <v>0.17442366633532147</v>
       </c>
-      <c r="J10" s="56">
-        <f>R10*-1*1000*D10</f>
+      <c r="J10" s="52">
+        <f t="shared" si="1"/>
         <v>2856.8070083837915</v>
       </c>
-      <c r="K10" s="52">
-        <f>P10/3600*D10</f>
+      <c r="K10" s="48">
+        <f t="shared" si="2"/>
         <v>0.17442366633532147</v>
       </c>
-      <c r="L10" s="56">
-        <f>Q10*1000*D10</f>
+      <c r="L10" s="52">
+        <f t="shared" si="3"/>
         <v>1149.1458156342132</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>21.8</v>
+      </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>131.04619304512804</v>
       </c>
       <c r="P10">
@@ -5255,49 +5291,53 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="25" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="53">
-        <v>266.8</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="C11" s="49">
+        <v>366.8</v>
+      </c>
+      <c r="D11" s="47">
         <v>1</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="47">
         <v>32</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="47">
         <v>16</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I11" s="52">
-        <f>P11/3600*D11</f>
+      <c r="I11" s="48">
+        <f t="shared" si="0"/>
         <v>3.3453180914512926</v>
       </c>
-      <c r="J11" s="56">
-        <f>R11*-1*1000*D11</f>
+      <c r="J11" s="52">
+        <f t="shared" si="1"/>
         <v>65030.400306170879</v>
       </c>
-      <c r="K11" s="52">
-        <f>P11/3600*D11</f>
+      <c r="K11" s="48">
+        <f t="shared" si="2"/>
         <v>3.3453180914512926</v>
       </c>
-      <c r="L11" s="56">
-        <f>Q11*1000*D11</f>
+      <c r="L11" s="52">
+        <f t="shared" si="3"/>
         <v>52314.901420847942</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>366.8</v>
+      </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>243.74213008309923</v>
+        <f t="shared" si="5"/>
+        <v>177.2911676831267</v>
       </c>
       <c r="P11">
         <v>12043.145129224653</v>
@@ -5310,48 +5350,52 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="25" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="49">
         <v>273</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="47">
         <v>1</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="47">
         <v>32</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="47">
         <v>16</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I12" s="52">
-        <f>P12/3600*D12</f>
+      <c r="I12" s="48">
+        <f t="shared" si="0"/>
         <v>2.4672216699801193</v>
       </c>
-      <c r="J12" s="56">
-        <f>R12*-1*1000*D12</f>
+      <c r="J12" s="52">
+        <f t="shared" si="1"/>
         <v>48127.600211133897</v>
       </c>
-      <c r="K12" s="52">
-        <f>P12/3600*D12</f>
+      <c r="K12" s="48">
+        <f t="shared" si="2"/>
         <v>2.4672216699801193</v>
       </c>
-      <c r="L12" s="56">
-        <f>Q12*1000*D12</f>
+      <c r="L12" s="52">
+        <f t="shared" si="3"/>
         <v>39728.694627492754</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>176.29157586495933</v>
       </c>
       <c r="P12">
@@ -5365,48 +5409,52 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="25" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="50">
         <v>144</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="50">
         <v>5</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="50">
         <v>32</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="50">
         <v>16</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I13" s="55">
-        <f>P13/3600*D13</f>
+      <c r="I13" s="51">
+        <f t="shared" si="0"/>
         <v>3.2564612326043747</v>
       </c>
-      <c r="J13" s="57">
-        <f>R13*-1*1000*D13</f>
+      <c r="J13" s="53">
+        <f t="shared" si="1"/>
         <v>63865.439304005413</v>
       </c>
-      <c r="K13" s="55">
-        <f>P13/3600*D13</f>
+      <c r="K13" s="51">
+        <f t="shared" si="2"/>
         <v>3.2564612326043747</v>
       </c>
-      <c r="L13" s="57">
-        <f>Q13*1000*D13</f>
+      <c r="L13" s="53">
+        <f t="shared" si="3"/>
         <v>33459.093471825763</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>88.701999033340854</v>
       </c>
       <c r="P13">
@@ -5420,48 +5468,52 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="25" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="50">
         <v>21.8</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="50">
         <v>5</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="50">
         <v>32</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="50">
         <v>16</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I14" s="55">
-        <f>P14/3600*D14</f>
+      <c r="I14" s="51">
+        <f t="shared" si="0"/>
         <v>0.60876925944334004</v>
       </c>
-      <c r="J14" s="57">
-        <f>R14*-1*1000*D14</f>
+      <c r="J14" s="53">
+        <f t="shared" si="1"/>
         <v>11105.516247158295</v>
       </c>
-      <c r="K14" s="55">
-        <f>P14/3600*D14</f>
+      <c r="K14" s="51">
+        <f t="shared" si="2"/>
         <v>0.60876925944334004</v>
       </c>
-      <c r="L14" s="57">
-        <f>Q14*1000*D14</f>
+      <c r="L14" s="53">
+        <f t="shared" si="3"/>
         <v>5443.7632312590413</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>101.88547015741555</v>
       </c>
       <c r="P14">
@@ -5475,48 +5527,52 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="25" customHeight="1">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="50">
         <v>12</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="50">
         <v>5</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="50">
         <v>32</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="50">
         <v>16</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I15" s="55">
-        <f>P15/3600*D15</f>
+      <c r="I15" s="51">
+        <f t="shared" si="0"/>
         <v>0.50894632206759449</v>
       </c>
-      <c r="J15" s="57">
-        <f>R15*-1*1000*D15</f>
+      <c r="J15" s="53">
+        <f t="shared" si="1"/>
         <v>8213.7541327387007</v>
       </c>
-      <c r="K15" s="55">
-        <f>P15/3600*D15</f>
+      <c r="K15" s="51">
+        <f t="shared" si="2"/>
         <v>0.50894632206759449</v>
       </c>
-      <c r="L15" s="57">
-        <f>Q15*1000*D15</f>
+      <c r="L15" s="53">
+        <f t="shared" si="3"/>
         <v>3279.8933409177039</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>136.89590221231168</v>
       </c>
       <c r="P15">
@@ -5530,48 +5586,52 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="25" customHeight="1">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="46">
         <v>187.5</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="50">
         <v>5</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="50">
         <v>32</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="50">
         <v>16</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I16" s="55">
-        <f>P16/3600*D16</f>
+      <c r="I16" s="51">
+        <f t="shared" si="0"/>
         <v>6.4301689860834985</v>
       </c>
-      <c r="J16" s="57">
-        <f>R16*-1*1000*D16</f>
+      <c r="J16" s="53">
+        <f t="shared" si="1"/>
         <v>140630.49116504236</v>
       </c>
-      <c r="K16" s="55">
-        <f>P16/3600*D16</f>
+      <c r="K16" s="51">
+        <f t="shared" si="2"/>
         <v>6.4301689860834985</v>
       </c>
-      <c r="L16" s="57">
-        <f>Q16*1000*D16</f>
+      <c r="L16" s="53">
+        <f t="shared" si="3"/>
         <v>137140.50048130366</v>
       </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>937.5</v>
+      </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>150.00585724271184</v>
       </c>
       <c r="P16">
@@ -5585,48 +5645,52 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="25" customHeight="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="46">
         <v>57.5</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="50">
         <v>5</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="50">
         <v>32</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="50">
         <v>16</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I17" s="55">
-        <f>P17/3600*D17</f>
+      <c r="I17" s="51">
+        <f t="shared" si="0"/>
         <v>2.1529158383035125</v>
       </c>
-      <c r="J17" s="57">
-        <f>R17*-1*1000*D17</f>
+      <c r="J17" s="53">
+        <f t="shared" si="1"/>
         <v>44936.729254955215</v>
       </c>
-      <c r="K17" s="55">
-        <f>P17/3600*D17</f>
+      <c r="K17" s="51">
+        <f t="shared" si="2"/>
         <v>2.1529158383035125</v>
       </c>
-      <c r="L17" s="57">
-        <f>Q17*1000*D17</f>
+      <c r="L17" s="53">
+        <f t="shared" si="3"/>
         <v>44848.9450121681</v>
       </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>287.5</v>
+      </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>156.30166697375728</v>
       </c>
       <c r="P17">
@@ -5640,48 +5704,52 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="25" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="46">
         <v>57.5</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="50">
         <v>5</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="50">
         <v>32</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="50">
         <v>16</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I18" s="55">
-        <f>P18/3600*D18</f>
+      <c r="I18" s="51">
+        <f t="shared" si="0"/>
         <v>2.2172175281643476</v>
       </c>
-      <c r="J18" s="57">
-        <f>R18*-1*1000*D18</f>
+      <c r="J18" s="53">
+        <f t="shared" si="1"/>
         <v>44936.729254955215</v>
       </c>
-      <c r="K18" s="55">
-        <f>P18/3600*D18</f>
+      <c r="K18" s="51">
+        <f t="shared" si="2"/>
         <v>2.2172175281643476</v>
       </c>
-      <c r="L18" s="57">
-        <f>Q18*1000*D18</f>
+      <c r="L18" s="53">
+        <f t="shared" si="3"/>
         <v>45828.171639084532</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>287.5</v>
+      </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>156.30166697375728</v>
       </c>
       <c r="P18">
@@ -5695,48 +5763,52 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="25" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="46">
         <v>292.5</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="50">
         <v>5</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="50">
         <v>32</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="50">
         <v>16</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I19" s="55">
-        <f>P19/3600*D19</f>
+      <c r="I19" s="51">
+        <f t="shared" si="0"/>
         <v>8.5045974155069572</v>
       </c>
-      <c r="J19" s="57">
-        <f>R19*-1*1000*D19</f>
+      <c r="J19" s="53">
+        <f t="shared" si="1"/>
         <v>153965.98917198583</v>
       </c>
-      <c r="K19" s="55">
-        <f>P19/3600*D19</f>
+      <c r="K19" s="51">
+        <f t="shared" si="2"/>
         <v>8.5045974155069572</v>
       </c>
-      <c r="L19" s="57">
-        <f>Q19*1000*D19</f>
+      <c r="L19" s="53">
+        <f t="shared" si="3"/>
         <v>190880.17657797702</v>
       </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>1462.5</v>
+      </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>105.27589003212707</v>
       </c>
       <c r="P19">
@@ -5750,48 +5822,52 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="25" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="46">
         <v>167.5</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="50">
         <v>5</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="50">
         <v>32</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="50">
         <v>16</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I20" s="55">
-        <f>P20/3600*D20</f>
+      <c r="I20" s="51">
+        <f t="shared" si="0"/>
         <v>5.910785288270378</v>
       </c>
-      <c r="J20" s="57">
-        <f>R20*-1*1000*D20</f>
+      <c r="J20" s="53">
+        <f t="shared" si="1"/>
         <v>121864.00856017646</v>
       </c>
-      <c r="K20" s="55">
-        <f>P20/3600*D20</f>
+      <c r="K20" s="51">
+        <f t="shared" si="2"/>
         <v>5.910785288270378</v>
       </c>
-      <c r="L20" s="57">
-        <f>Q20*1000*D20</f>
+      <c r="L20" s="53">
+        <f t="shared" si="3"/>
         <v>125153.28822479604</v>
       </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>837.5</v>
+      </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>145.50926395244952</v>
       </c>
       <c r="P20">
@@ -5805,48 +5881,52 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="25" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="46">
         <v>57.5</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="50">
         <v>5</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="50">
         <v>32</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="50">
         <v>16</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I21" s="55">
-        <f>P21/3600*D21</f>
+      <c r="I21" s="51">
+        <f t="shared" si="0"/>
         <v>2.2195990722332675</v>
       </c>
-      <c r="J21" s="57">
-        <f>R21*-1*1000*D21</f>
+      <c r="J21" s="53">
+        <f t="shared" si="1"/>
         <v>44160.974004405172</v>
       </c>
-      <c r="K21" s="55">
-        <f>P21/3600*D21</f>
+      <c r="K21" s="51">
+        <f t="shared" si="2"/>
         <v>2.2195990722332675</v>
       </c>
-      <c r="L21" s="57">
-        <f>Q21*1000*D21</f>
+      <c r="L21" s="53">
+        <f t="shared" si="3"/>
         <v>45864.439553806238</v>
       </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>287.5</v>
+      </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>153.6033878414093</v>
       </c>
       <c r="P21">
@@ -5860,48 +5940,52 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="25" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="46">
         <v>279</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="50">
         <v>5</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="50">
         <v>32</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="50">
         <v>16</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I22" s="55">
-        <f>P22/3600*D22</f>
+      <c r="I22" s="51">
+        <f t="shared" si="0"/>
         <v>8.1236332007952292</v>
       </c>
-      <c r="J22" s="57">
-        <f>R22*-1*1000*D22</f>
+      <c r="J22" s="53">
+        <f t="shared" si="1"/>
         <v>139634.57518714076</v>
       </c>
-      <c r="K22" s="55">
-        <f>P22/3600*D22</f>
+      <c r="K22" s="51">
+        <f t="shared" si="2"/>
         <v>8.1236332007952292</v>
       </c>
-      <c r="L22" s="57">
-        <f>Q22*1000*D22</f>
+      <c r="L22" s="53">
+        <f t="shared" si="3"/>
         <v>182246.26939890749</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>1395</v>
+      </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>100.09646966820125</v>
       </c>
       <c r="P22">
@@ -5915,48 +5999,52 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="25" customHeight="1">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="47">
         <v>144</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="47">
         <v>1</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="47">
         <v>32</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="47">
         <v>16</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I23" s="52">
-        <f>P23/3600*D23</f>
+      <c r="I23" s="48">
+        <f t="shared" si="0"/>
         <v>0.90536779324055672</v>
       </c>
-      <c r="J23" s="56">
-        <f>R23*-1*1000*D23</f>
+      <c r="J23" s="52">
+        <f t="shared" si="1"/>
         <v>15839.351670331989</v>
       </c>
-      <c r="K23" s="52">
-        <f>P23/3600*D23</f>
+      <c r="K23" s="48">
+        <f t="shared" si="2"/>
         <v>0.90536779324055672</v>
       </c>
-      <c r="L23" s="56">
-        <f>Q23*1000*D23</f>
+      <c r="L23" s="52">
+        <f t="shared" si="3"/>
         <v>7835.4305253329339</v>
       </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>109.99549771063882</v>
       </c>
       <c r="P23">
@@ -5970,48 +6058,52 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="25" customHeight="1">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="47">
         <v>21.8</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="47">
         <v>1</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="47">
         <v>32</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="47">
         <v>16</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I24" s="52">
-        <f>P24/3600*D24</f>
+      <c r="I24" s="48">
+        <f t="shared" si="0"/>
         <v>0.16179734095427437</v>
       </c>
-      <c r="J24" s="56">
-        <f>R24*-1*1000*D24</f>
+      <c r="J24" s="52">
+        <f t="shared" si="1"/>
         <v>2704.4047752095744</v>
       </c>
-      <c r="K24" s="52">
-        <f>P24/3600*D24</f>
+      <c r="K24" s="48">
+        <f t="shared" si="2"/>
         <v>0.16179734095427437</v>
       </c>
-      <c r="L24" s="56">
-        <f>Q24*1000*D24</f>
+      <c r="L24" s="52">
+        <f t="shared" si="3"/>
         <v>1267.2097172636572</v>
       </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>21.8</v>
+      </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>124.05526491787037</v>
       </c>
       <c r="P24">
@@ -6025,48 +6117,52 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="25" customHeight="1">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="47">
         <v>12</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="47">
         <v>1</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="47">
         <v>32</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="47">
         <v>16</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I25" s="52">
-        <f>P25/3600*D25</f>
+      <c r="I25" s="48">
+        <f t="shared" si="0"/>
         <v>0.12375745526838967</v>
       </c>
-      <c r="J25" s="56">
-        <f>R25*-1*1000*D25</f>
+      <c r="J25" s="52">
+        <f t="shared" si="1"/>
         <v>1907.9238836713207</v>
       </c>
-      <c r="K25" s="52">
-        <f>P25/3600*D25</f>
+      <c r="K25" s="48">
+        <f t="shared" si="2"/>
         <v>0.12375745526838967</v>
       </c>
-      <c r="L25" s="56">
-        <f>Q25*1000*D25</f>
+      <c r="L25" s="52">
+        <f t="shared" si="3"/>
         <v>758.88227085386177</v>
       </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>158.99365697261007</v>
       </c>
       <c r="P25">
@@ -6080,48 +6176,52 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="25" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="49">
         <v>595</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="49">
         <v>1</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="47">
         <v>32</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="47">
         <v>16</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I26" s="52">
-        <f>P26/3600*D26</f>
+      <c r="I26" s="48">
+        <f t="shared" si="0"/>
         <v>4.7365390987408889</v>
       </c>
-      <c r="J26" s="56">
-        <f>R26*-1*1000*D26</f>
+      <c r="J26" s="52">
+        <f t="shared" si="1"/>
         <v>97162.105634258405</v>
       </c>
-      <c r="K26" s="52">
-        <f>P26/3600*D26</f>
+      <c r="K26" s="48">
+        <f t="shared" si="2"/>
         <v>4.7365390987408889</v>
       </c>
-      <c r="L26" s="56">
-        <f>Q26*1000*D26</f>
+      <c r="L26" s="52">
+        <f t="shared" si="3"/>
         <v>87413.775539583308</v>
       </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>595</v>
+      </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>163.29765652816539</v>
       </c>
       <c r="P26">
@@ -6135,48 +6235,52 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="25" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="49">
         <v>504</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="49">
         <v>1</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="47">
         <v>32</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="47">
         <v>16</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I27" s="52">
-        <f>P27/3600*D27</f>
+      <c r="I27" s="48">
+        <f t="shared" si="0"/>
         <v>3.6781312127236583</v>
       </c>
-      <c r="J27" s="56">
-        <f>R27*-1*1000*D27</f>
+      <c r="J27" s="52">
+        <f t="shared" si="1"/>
         <v>78272.355173871401</v>
       </c>
-      <c r="K27" s="52">
-        <f>P27/3600*D27</f>
+      <c r="K27" s="48">
+        <f t="shared" si="2"/>
         <v>3.6781312127236583</v>
       </c>
-      <c r="L27" s="56">
-        <f>Q27*1000*D27</f>
+      <c r="L27" s="52">
+        <f t="shared" si="3"/>
         <v>72010.218470530366</v>
       </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>504</v>
+      </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>155.3022920116496</v>
       </c>
       <c r="P27">
@@ -6190,13 +6294,13 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="45">
         <v>40</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="45">
         <v>15</v>
       </c>
       <c r="G29" s="14">
@@ -6204,6 +6308,10 @@
       </c>
       <c r="H29" s="14">
         <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="M29">
+        <f>SUM(M3:M27)</f>
+        <v>8680.5</v>
       </c>
     </row>
   </sheetData>
@@ -6386,7 +6494,7 @@
       </c>
     </row>
     <row r="13" spans="1:52">
-      <c r="B13" s="45"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="22" t="str" cm="1">
         <f t="array" ref="C13">INDEX([1]ピーク負荷!$B$13:$B$37,C12,1)</f>
         <v>1F</v>
@@ -6589,7 +6697,7 @@
       </c>
     </row>
     <row r="14" spans="1:52">
-      <c r="B14" s="45"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="26" t="s">
         <v>120</v>
       </c>
@@ -9415,10 +9523,10 @@
       <c r="B29" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="43">
         <v>16</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="43">
         <v>32</v>
       </c>
       <c r="E29" s="39">
@@ -9570,10 +9678,10 @@
       <c r="B30" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="43">
         <v>10.11</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="43">
         <f>D22-D16/D17/2501/1.2*3600*1000</f>
         <v>6.9052677465599128</v>
       </c>
@@ -9750,11 +9858,11 @@
       <c r="B31" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="44">
         <f t="shared" ref="C31:E31" si="75">1.006*C29+C30/1000*(2501+1.805*C29)</f>
         <v>41.6730868</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="44">
         <f>1.006*D29+D30/1000*(2501+1.805*D29)</f>
         <v>49.860922899187642</v>
       </c>
@@ -9955,11 +10063,11 @@
       <c r="B32" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="44">
         <f t="shared" ref="C32:AZ32" si="99">(C23-C26)*C17*1.006*1.2/3600</f>
         <v>5.0112477499999999</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="43">
         <f t="shared" si="99"/>
         <v>-18.981411275218097</v>
       </c>
@@ -10160,11 +10268,11 @@
       <c r="B33" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="43">
         <f t="shared" ref="C33:AZ33" si="100">(C25-C28)*C17*1.2/3600</f>
         <v>8.0307507226575012</v>
       </c>
-      <c r="D33" s="47">
+      <c r="D33" s="44">
         <f t="shared" si="100"/>
         <v>-19.18991703850233</v>
       </c>
@@ -10365,11 +10473,11 @@
       <c r="B34" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="44">
         <f>(C24-C30)*C17*1.2/1000</f>
         <v>4.1298247216699826</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="44">
         <f>(D27-D30)*D17*1.2/1000</f>
         <v>-3.7567593082766897</v>
       </c>
@@ -10570,131 +10678,131 @@
       <c r="B35" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="65">
         <f>MAX(C17,D17)</f>
         <v>3998.1113320079526</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="43">
+      <c r="D35" s="65"/>
+      <c r="E35" s="66">
         <f>MAX(E17,F17)</f>
         <v>2385.685884691849</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44">
+      <c r="F35" s="66"/>
+      <c r="G35" s="63">
         <f>MAX(G17,H17)</f>
         <v>482.02783300198797</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="43">
+      <c r="H35" s="63"/>
+      <c r="I35" s="66">
         <f>MAX(I17,J17)</f>
         <v>911.8091451292247</v>
       </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="44">
+      <c r="J35" s="66"/>
+      <c r="K35" s="63">
         <f>MAX(K17,L17)</f>
         <v>304.54696819085495</v>
       </c>
-      <c r="L35" s="44"/>
-      <c r="M35" s="43">
+      <c r="L35" s="63"/>
+      <c r="M35" s="66">
         <f>MAX(M17,N17)</f>
         <v>292.20924453280321</v>
       </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="44">
+      <c r="N35" s="66"/>
+      <c r="O35" s="63">
         <f>MAX(O17,P17)</f>
         <v>529.22340954274352</v>
       </c>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="43">
+      <c r="P35" s="63"/>
+      <c r="Q35" s="66">
         <f>MAX(Q17,R17)</f>
         <v>627.92519880715724</v>
       </c>
-      <c r="R35" s="43"/>
-      <c r="S35" s="44">
+      <c r="R35" s="66"/>
+      <c r="S35" s="63">
         <f>MAX(S17,T17)</f>
         <v>12043.145129224653</v>
       </c>
-      <c r="T35" s="44"/>
-      <c r="U35" s="43">
+      <c r="T35" s="63"/>
+      <c r="U35" s="66">
         <f>MAX(U17,V17)</f>
         <v>8881.9980119284301</v>
       </c>
-      <c r="V35" s="43"/>
-      <c r="W35" s="44">
+      <c r="V35" s="66"/>
+      <c r="W35" s="63">
         <f>MAX(W17,X17)</f>
         <v>2344.6520874751495</v>
       </c>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="43">
+      <c r="X35" s="63"/>
+      <c r="Y35" s="66">
         <f>MAX(Y17,Z17)</f>
         <v>438.31386679920479</v>
       </c>
-      <c r="Z35" s="43"/>
-      <c r="AA35" s="44">
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="63">
         <f>MAX(AA17,AB17)</f>
         <v>366.44135188866807</v>
       </c>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="43">
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="66">
         <f>MAX(AC17,AD17)</f>
         <v>4629.7216699801193</v>
       </c>
-      <c r="AD35" s="43"/>
-      <c r="AE35" s="44">
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="63">
         <f>MAX(AE17,AF17)</f>
         <v>1550.0994035785288</v>
       </c>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="43">
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="66">
         <f>MAX(AG17,AH17)</f>
         <v>1596.3966202783304</v>
       </c>
-      <c r="AH35" s="43"/>
-      <c r="AI35" s="44">
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="63">
         <f>MAX(AI17,AJ17)</f>
         <v>6123.3101391650098</v>
       </c>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="43">
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="66">
         <f>MAX(AK17,AL17)</f>
         <v>4255.7654075546725</v>
       </c>
-      <c r="AL35" s="43"/>
-      <c r="AM35" s="44">
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="63">
         <f>MAX(AM17,AN17)</f>
         <v>1598.1113320079526</v>
       </c>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="43">
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="66">
         <f>MAX(AO17,AP17)</f>
         <v>5849.015904572565</v>
       </c>
-      <c r="AP35" s="43"/>
-      <c r="AQ35" s="44">
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="63">
         <f>MAX(AQ17,AR17)</f>
         <v>3259.3240556660044</v>
       </c>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="43">
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="66">
         <f>MAX(AS17,AT17)</f>
         <v>582.47042743538771</v>
       </c>
-      <c r="AT35" s="43"/>
-      <c r="AU35" s="44">
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="63">
         <f>MAX(AU17,AV17)</f>
         <v>445.52683896620283</v>
       </c>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="43">
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="66">
         <f>MAX(AW17,AX17)</f>
         <v>17051.540755467198</v>
       </c>
-      <c r="AX35" s="43"/>
-      <c r="AY35" s="44">
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="63">
         <f>MAX(AY17,AZ17)</f>
         <v>13241.272365805169</v>
       </c>
-      <c r="AZ35" s="44"/>
+      <c r="AZ35" s="63"/>
     </row>
     <row r="36" spans="2:52">
       <c r="B36" s="40" t="s">
@@ -11108,12 +11216,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="AW35:AX35"/>
+    <mergeCell ref="AY35:AZ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AP35"/>
+    <mergeCell ref="AQ35:AR35"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AU35:AV35"/>
     <mergeCell ref="AI35:AJ35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -11126,14 +11236,12 @@
     <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="AE35:AF35"/>
     <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AW35:AX35"/>
-    <mergeCell ref="AY35:AZ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AP35"/>
-    <mergeCell ref="AQ35:AR35"/>
-    <mergeCell ref="AS35:AT35"/>
-    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/idf_miyata/CaseWBT/WholeBuildingTest_計算条件まとめ.xlsx
+++ b/idf_miyata/CaseWBT/WholeBuildingTest_計算条件まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/CaseWBT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDE07AC-8AF8-F740-A699-DAD9824DB88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7152E1-6705-1F46-BBCE-1826C217C9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60380" yWindow="500" windowWidth="44940" windowHeight="20500" xr2:uid="{BCBDAEAB-0B6A-394C-971A-EDDF441D969A}"/>
+    <workbookView xWindow="25180" yWindow="1820" windowWidth="39120" windowHeight="22840" activeTab="1" xr2:uid="{BCBDAEAB-0B6A-394C-971A-EDDF441D969A}"/>
   </bookViews>
   <sheets>
     <sheet name="第一弾" sheetId="1" r:id="rId1"/>
@@ -1217,6 +1217,9 @@
     <xf numFmtId="180" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1224,9 +1227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2315,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC0E411-0D91-A147-92DF-5EB22F4D3414}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4731,8 +4731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA07A978-B23A-2441-8ABF-18AD3C8549C0}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4818,7 +4818,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="25" customHeight="1" thickTop="1">
+    <row r="3" spans="1:18" ht="20" customHeight="1" thickTop="1">
       <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>-18.981411275218097</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="25" customHeight="1">
+    <row r="4" spans="1:18" ht="20" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>41</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>-11.642224996458747</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="25" customHeight="1">
+    <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>42</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>-2.0533789285663095</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="25" customHeight="1">
+    <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>43</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>-4.5818745885872767</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="25" customHeight="1">
+    <row r="7" spans="1:18" ht="20" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>-1.5998456539145278</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="25" customHeight="1">
+    <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>45</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>-1.5584881574410128</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="25" customHeight="1">
+    <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="47" t="s">
         <v>46</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>-2.9319660814178317</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="25" customHeight="1">
+    <row r="10" spans="1:18" ht="20" customHeight="1">
       <c r="A10" s="47" t="s">
         <v>47</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>-2.8568070083837913</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="25" customHeight="1">
+    <row r="11" spans="1:18" ht="20" customHeight="1">
       <c r="A11" s="49" t="s">
         <v>48</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>-65.030400306170876</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="25" customHeight="1">
+    <row r="12" spans="1:18" ht="20" customHeight="1">
       <c r="A12" s="49" t="s">
         <v>49</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>-48.127600211133895</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="25" customHeight="1">
+    <row r="13" spans="1:18" ht="20" customHeight="1">
       <c r="A13" s="50" t="s">
         <v>50</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>-12.773087860801082</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="25" customHeight="1">
+    <row r="14" spans="1:18" ht="20" customHeight="1">
       <c r="A14" s="50" t="s">
         <v>51</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>-2.2211032494316592</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="25" customHeight="1">
+    <row r="15" spans="1:18" ht="20" customHeight="1">
       <c r="A15" s="50" t="s">
         <v>52</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>-1.64275082654774</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="25" customHeight="1">
+    <row r="16" spans="1:18" ht="20" customHeight="1">
       <c r="A16" s="46" t="s">
         <v>53</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>-28.12609823300847</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="25" customHeight="1">
+    <row r="17" spans="1:18" ht="20" customHeight="1">
       <c r="A17" s="46" t="s">
         <v>54</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>-8.9873458509910424</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="25" customHeight="1">
+    <row r="18" spans="1:18" ht="20" customHeight="1">
       <c r="A18" s="46" t="s">
         <v>55</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>-8.9873458509910424</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="25" customHeight="1">
+    <row r="19" spans="1:18" ht="20" customHeight="1">
       <c r="A19" s="46" t="s">
         <v>56</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>-30.793197834397169</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="25" customHeight="1">
+    <row r="20" spans="1:18" ht="20" customHeight="1">
       <c r="A20" s="46" t="s">
         <v>57</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>-24.372801712035294</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="25" customHeight="1">
+    <row r="21" spans="1:18" ht="20" customHeight="1">
       <c r="A21" s="46" t="s">
         <v>58</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>-8.8321948008810338</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="25" customHeight="1">
+    <row r="22" spans="1:18" ht="20" customHeight="1">
       <c r="A22" s="46" t="s">
         <v>59</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>-27.926915037428152</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="25" customHeight="1">
+    <row r="23" spans="1:18" ht="20" customHeight="1">
       <c r="A23" s="47" t="s">
         <v>60</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>-15.83935167033199</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="25" customHeight="1">
+    <row r="24" spans="1:18" ht="20" customHeight="1">
       <c r="A24" s="47" t="s">
         <v>61</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>-2.7044047752095746</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="25" customHeight="1">
+    <row r="25" spans="1:18" ht="20" customHeight="1">
       <c r="A25" s="47" t="s">
         <v>62</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>-1.9079238836713208</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="25" customHeight="1">
+    <row r="26" spans="1:18" ht="20" customHeight="1">
       <c r="A26" s="49" t="s">
         <v>63</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>-97.16210563425841</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="25" customHeight="1">
+    <row r="27" spans="1:18" ht="20" customHeight="1">
       <c r="A27" s="49" t="s">
         <v>64</v>
       </c>
@@ -6494,7 +6494,7 @@
       </c>
     </row>
     <row r="13" spans="1:52">
-      <c r="B13" s="64"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="22" t="str" cm="1">
         <f t="array" ref="C13">INDEX([1]ピーク負荷!$B$13:$B$37,C12,1)</f>
         <v>1F</v>
@@ -6697,7 +6697,7 @@
       </c>
     </row>
     <row r="14" spans="1:52">
-      <c r="B14" s="64"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="26" t="s">
         <v>120</v>
       </c>
@@ -10678,131 +10678,131 @@
       <c r="B35" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="66">
         <f>MAX(C17,D17)</f>
         <v>3998.1113320079526</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66">
+      <c r="D35" s="66"/>
+      <c r="E35" s="63">
         <f>MAX(E17,F17)</f>
         <v>2385.685884691849</v>
       </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="63">
+      <c r="F35" s="63"/>
+      <c r="G35" s="64">
         <f>MAX(G17,H17)</f>
         <v>482.02783300198797</v>
       </c>
-      <c r="H35" s="63"/>
-      <c r="I35" s="66">
+      <c r="H35" s="64"/>
+      <c r="I35" s="63">
         <f>MAX(I17,J17)</f>
         <v>911.8091451292247</v>
       </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="63">
+      <c r="J35" s="63"/>
+      <c r="K35" s="64">
         <f>MAX(K17,L17)</f>
         <v>304.54696819085495</v>
       </c>
-      <c r="L35" s="63"/>
-      <c r="M35" s="66">
+      <c r="L35" s="64"/>
+      <c r="M35" s="63">
         <f>MAX(M17,N17)</f>
         <v>292.20924453280321</v>
       </c>
-      <c r="N35" s="66"/>
-      <c r="O35" s="63">
+      <c r="N35" s="63"/>
+      <c r="O35" s="64">
         <f>MAX(O17,P17)</f>
         <v>529.22340954274352</v>
       </c>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="66">
+      <c r="P35" s="64"/>
+      <c r="Q35" s="63">
         <f>MAX(Q17,R17)</f>
         <v>627.92519880715724</v>
       </c>
-      <c r="R35" s="66"/>
-      <c r="S35" s="63">
+      <c r="R35" s="63"/>
+      <c r="S35" s="64">
         <f>MAX(S17,T17)</f>
         <v>12043.145129224653</v>
       </c>
-      <c r="T35" s="63"/>
-      <c r="U35" s="66">
+      <c r="T35" s="64"/>
+      <c r="U35" s="63">
         <f>MAX(U17,V17)</f>
         <v>8881.9980119284301</v>
       </c>
-      <c r="V35" s="66"/>
-      <c r="W35" s="63">
+      <c r="V35" s="63"/>
+      <c r="W35" s="64">
         <f>MAX(W17,X17)</f>
         <v>2344.6520874751495</v>
       </c>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="66">
+      <c r="X35" s="64"/>
+      <c r="Y35" s="63">
         <f>MAX(Y17,Z17)</f>
         <v>438.31386679920479</v>
       </c>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="63">
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="64">
         <f>MAX(AA17,AB17)</f>
         <v>366.44135188866807</v>
       </c>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="66">
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="63">
         <f>MAX(AC17,AD17)</f>
         <v>4629.7216699801193</v>
       </c>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="63">
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="64">
         <f>MAX(AE17,AF17)</f>
         <v>1550.0994035785288</v>
       </c>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="66">
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="63">
         <f>MAX(AG17,AH17)</f>
         <v>1596.3966202783304</v>
       </c>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="63">
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="64">
         <f>MAX(AI17,AJ17)</f>
         <v>6123.3101391650098</v>
       </c>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="66">
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="63">
         <f>MAX(AK17,AL17)</f>
         <v>4255.7654075546725</v>
       </c>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="63">
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="64">
         <f>MAX(AM17,AN17)</f>
         <v>1598.1113320079526</v>
       </c>
-      <c r="AN35" s="63"/>
-      <c r="AO35" s="66">
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="63">
         <f>MAX(AO17,AP17)</f>
         <v>5849.015904572565</v>
       </c>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="63">
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="64">
         <f>MAX(AQ17,AR17)</f>
         <v>3259.3240556660044</v>
       </c>
-      <c r="AR35" s="63"/>
-      <c r="AS35" s="66">
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="63">
         <f>MAX(AS17,AT17)</f>
         <v>582.47042743538771</v>
       </c>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="63">
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="64">
         <f>MAX(AU17,AV17)</f>
         <v>445.52683896620283</v>
       </c>
-      <c r="AV35" s="63"/>
-      <c r="AW35" s="66">
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="63">
         <f>MAX(AW17,AX17)</f>
         <v>17051.540755467198</v>
       </c>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="63">
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="64">
         <f>MAX(AY17,AZ17)</f>
         <v>13241.272365805169</v>
       </c>
-      <c r="AZ35" s="63"/>
+      <c r="AZ35" s="64"/>
     </row>
     <row r="36" spans="2:52">
       <c r="B36" s="40" t="s">
@@ -11216,14 +11216,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AW35:AX35"/>
-    <mergeCell ref="AY35:AZ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AP35"/>
-    <mergeCell ref="AQ35:AR35"/>
-    <mergeCell ref="AS35:AT35"/>
-    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="AI35:AJ35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -11236,12 +11234,14 @@
     <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="AE35:AF35"/>
     <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="AW35:AX35"/>
+    <mergeCell ref="AY35:AZ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AP35"/>
+    <mergeCell ref="AQ35:AR35"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AU35:AV35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
